--- a/Outputs/table_sociodemographics.xlsx
+++ b/Outputs/table_sociodemographics.xlsx
@@ -3879,4 +3879,264 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22165C76-8F46-4992-A2F8-EB36ABFEA148}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB8018F-D324-4435-A585-972821FB2968}"/>
 </file>
--- a/Outputs/table_sociodemographics.xlsx
+++ b/Outputs/table_sociodemographics.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/LAC-Reports/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C6C49-F287-3E42-944B-DE7D55FECACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B654F3A-B51B-5E4A-BF2B-F1509C8E40F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Andean" sheetId="1" r:id="rId1"/>
     <sheet name="South Cone" sheetId="2" r:id="rId2"/>
     <sheet name="East Caribbean" sheetId="3" r:id="rId3"/>
     <sheet name="West Caribbean" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="144">
   <si>
     <t>country</t>
   </si>
@@ -443,13 +444,25 @@
   </si>
   <si>
     <t>80%</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>N_obs</t>
+  </si>
+  <si>
+    <t>Min_category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +472,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -498,13 +519,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +545,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -846,7 +868,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3025,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3881,7 +3903,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD03B2A-A9F6-1145-9E3B-DC603A09E48F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b17f52af6646b5583120346a68295973">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95a1201d1da507c70fe2596948b34472" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -4124,19 +4240,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22165C76-8F46-4992-A2F8-EB36ABFEA148}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB8018F-D324-4435-A585-972821FB2968}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB8018F-D324-4435-A585-972821FB2968}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22165C76-8F46-4992-A2F8-EB36ABFEA148}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>